--- a/uploads/20181109171243.xlsx
+++ b/uploads/20181109171243.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t xml:space="preserve">姓名	</t>
   </si>
@@ -101,16 +101,13 @@
     <t xml:space="preserve">十二月	</t>
   </si>
   <si>
-    <t>丁文美</t>
-  </si>
-  <si>
-    <t>火炬开发区分公司</t>
-  </si>
-  <si>
-    <t>2012-07-01</t>
-  </si>
-  <si>
-    <t>2014-10-15</t>
+    <t>lyj</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
   </si>
 </sst>
 </file>
@@ -144,8 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +448,13 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -536,26 +537,26 @@
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -564,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>

--- a/uploads/20181109171243.xlsx
+++ b/uploads/20181109171243.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">姓名	</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>禤毅良</t>
+  </si>
+  <si>
+    <t>2004-07-01</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,6 +610,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
